--- a/tests/data/output/一级测试用例-10001_result.xlsx
+++ b/tests/data/output/一级测试用例-10001_result.xlsx
@@ -477,7 +477,7 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>{"user_name":"储丽娟","id_card_no":"230900196208281091"}</t>
+          <t>{"user_name":"云建华","id_card_no":"361121195106254504"}</t>
         </is>
       </c>
     </row>
@@ -535,7 +535,7 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>{"user_name":"嵇玉","id_card_no":"321181198904088523"}</t>
+          <t>{"user_name":"纪阳","id_card_no":"210202194105061020"}</t>
         </is>
       </c>
     </row>
@@ -593,7 +593,7 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>{"user_name":"易红梅","id_card_no":"61082419700601122X"}</t>
+          <t>{"user_name":"廖萍","id_card_no":"341200199412285577"}</t>
         </is>
       </c>
     </row>
@@ -651,7 +651,7 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>{"user_name":"郑婷婷","id_card_no":"632300197611208917"}</t>
+          <t>{"user_name":"谭桂芳","id_card_no":"654024199510089727"}</t>
         </is>
       </c>
     </row>
@@ -707,7 +707,7 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>{"user_name":"赫建华","id_card_no":"23100519800112362X"}</t>
+          <t>{"user_name":"倪秀云","id_card_no":"361026197402029745"}</t>
         </is>
       </c>
     </row>
@@ -763,7 +763,7 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>{"user_name":"甘欢","id_card_no":"431381197905211329"}</t>
+          <t>{"user_name":"颜丽娟","id_card_no":"230811197008099111"}</t>
         </is>
       </c>
     </row>
@@ -819,7 +819,7 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>{"user_name":"宗畅","id_card_no":"542626194101217105"}</t>
+          <t>{"user_name":"甄萍","id_card_no":"520324197602134657"}</t>
         </is>
       </c>
     </row>
@@ -875,7 +875,7 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>{"user_name":"晁柳","id_card_no":"611023196001091220"}</t>
+          <t>{"user_name":"宰勇","id_card_no":"130638194710231831"}</t>
         </is>
       </c>
     </row>
@@ -927,7 +927,7 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>{"user_name":"倪建军","id_card_no":"371321197710126703"}</t>
+          <t>{"user_name":"申帆","id_card_no":"430382196410044320"}</t>
         </is>
       </c>
     </row>

--- a/tests/data/output/一级测试用例-10001_result.xlsx
+++ b/tests/data/output/一级测试用例-10001_result.xlsx
@@ -477,7 +477,7 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>{"user_name":"云建华","id_card_no":"361121195106254504"}</t>
+          <t>{"user_name":"单小红","id_card_no":"431103195207115103"}</t>
         </is>
       </c>
     </row>
@@ -535,7 +535,7 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>{"user_name":"纪阳","id_card_no":"210202194105061020"}</t>
+          <t>{"user_name":"武柳","id_card_no":"130121197005122225"}</t>
         </is>
       </c>
     </row>
@@ -593,7 +593,7 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>{"user_name":"廖萍","id_card_no":"341200199412285577"}</t>
+          <t>{"user_name":"顾晨","id_card_no":"350881193202185441"}</t>
         </is>
       </c>
     </row>
@@ -651,7 +651,7 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>{"user_name":"谭桂芳","id_card_no":"654024199510089727"}</t>
+          <t>{"user_name":"倪兰英","id_card_no":"110101193211200469"}</t>
         </is>
       </c>
     </row>
@@ -698,16 +698,16 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>0.09035093123062075</v>
+        <v>1</v>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>false</t>
+          <t>true</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>{"user_name":"倪秀云","id_card_no":"361026197402029745"}</t>
+          <t>{"user_name":"翟欢","id_card_no":"460105197304129810"}</t>
         </is>
       </c>
     </row>
@@ -744,7 +744,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>ovdu_sco_time=2</t>
+          <t>ovdu_sco_time=3</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -754,16 +754,16 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>2.669459331813795</v>
+        <v>3</v>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>false</t>
+          <t>true</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>{"user_name":"颜丽娟","id_card_no":"230811197008099111"}</t>
+          <t>{"user_name":"滕磊","id_card_no":"653226194209019420"}</t>
         </is>
       </c>
     </row>
@@ -800,7 +800,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>ovdu_sco_time=3</t>
+          <t>ovdu_sco_time=2</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -810,16 +810,16 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>1.922010718905932</v>
+        <v>2</v>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>false</t>
+          <t>true</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>{"user_name":"甄萍","id_card_no":"520324197602134657"}</t>
+          <t>{"user_name":"戎亮","id_card_no":"540229197706107821"}</t>
         </is>
       </c>
     </row>
@@ -866,16 +866,16 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>3.249895617295358</v>
+        <v>4</v>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>false</t>
+          <t>true</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>{"user_name":"宰勇","id_card_no":"130638194710231831"}</t>
+          <t>{"user_name":"徐刚","id_card_no":"511002193408080647"}</t>
         </is>
       </c>
     </row>
@@ -927,7 +927,7 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>{"user_name":"申帆","id_card_no":"430382196410044320"}</t>
+          <t>{"user_name":"俞丹丹","id_card_no":"654021196310259776"}</t>
         </is>
       </c>
     </row>

--- a/tests/data/output/一级测试用例-10001_result.xlsx
+++ b/tests/data/output/一级测试用例-10001_result.xlsx
@@ -477,7 +477,7 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>{"user_name":"单小红","id_card_no":"431103195207115103"}</t>
+          <t>{"user_name":"闫建军","id_card_no":"62010319940418651X"}</t>
         </is>
       </c>
     </row>
@@ -535,7 +535,7 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>{"user_name":"武柳","id_card_no":"130121197005122225"}</t>
+          <t>{"user_name":"贡鹏","id_card_no":"36010019590809460X"}</t>
         </is>
       </c>
     </row>
@@ -593,7 +593,7 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>{"user_name":"顾晨","id_card_no":"350881193202185441"}</t>
+          <t>{"user_name":"冶丽娟","id_card_no":"360111198106168753"}</t>
         </is>
       </c>
     </row>
@@ -651,7 +651,7 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>{"user_name":"倪兰英","id_card_no":"110101193211200469"}</t>
+          <t>{"user_name":"索兵","id_card_no":"360428199912311233"}</t>
         </is>
       </c>
     </row>
@@ -707,7 +707,7 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>{"user_name":"翟欢","id_card_no":"460105197304129810"}</t>
+          <t>{"user_name":"门宇","id_card_no":"320507197912078491"}</t>
         </is>
       </c>
     </row>
@@ -763,7 +763,7 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>{"user_name":"滕磊","id_card_no":"653226194209019420"}</t>
+          <t>{"user_name":"卫东","id_card_no":"230221196302053427"}</t>
         </is>
       </c>
     </row>
@@ -819,7 +819,7 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>{"user_name":"戎亮","id_card_no":"540229197706107821"}</t>
+          <t>{"user_name":"夏淑兰","id_card_no":"33032819540314524X"}</t>
         </is>
       </c>
     </row>
@@ -875,7 +875,7 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>{"user_name":"徐刚","id_card_no":"511002193408080647"}</t>
+          <t>{"user_name":"上秀华","id_card_no":"13072719901127695X"}</t>
         </is>
       </c>
     </row>
@@ -927,7 +927,7 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>{"user_name":"俞丹丹","id_card_no":"654021196310259776"}</t>
+          <t>{"user_name":"穆利","id_card_no":"341524194207085757"}</t>
         </is>
       </c>
     </row>

--- a/tests/data/output/一级测试用例-10001_result.xlsx
+++ b/tests/data/output/一级测试用例-10001_result.xlsx
@@ -477,7 +477,7 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>{"user_name":"闫建军","id_card_no":"62010319940418651X"}</t>
+          <t>{"user_name":"巫帆","id_card_no":"231224194506264673"}</t>
         </is>
       </c>
     </row>
@@ -535,7 +535,7 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>{"user_name":"贡鹏","id_card_no":"36010019590809460X"}</t>
+          <t>{"user_name":"裴兵","id_card_no":"140429199603155762"}</t>
         </is>
       </c>
     </row>
@@ -593,7 +593,7 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>{"user_name":"冶丽娟","id_card_no":"360111198106168753"}</t>
+          <t>{"user_name":"李鑫","id_card_no":"140723194602220134"}</t>
         </is>
       </c>
     </row>
@@ -651,7 +651,7 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>{"user_name":"索兵","id_card_no":"360428199912311233"}</t>
+          <t>{"user_name":"梅刚","id_card_no":"659001195902087829"}</t>
         </is>
       </c>
     </row>
@@ -707,7 +707,7 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>{"user_name":"门宇","id_card_no":"320507197912078491"}</t>
+          <t>{"user_name":"养旭","id_card_no":"371501198501103089"}</t>
         </is>
       </c>
     </row>
@@ -763,7 +763,7 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>{"user_name":"卫东","id_card_no":"230221196302053427"}</t>
+          <t>{"user_name":"窦静","id_card_no":"130721193601178326"}</t>
         </is>
       </c>
     </row>
@@ -819,7 +819,7 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>{"user_name":"夏淑兰","id_card_no":"33032819540314524X"}</t>
+          <t>{"user_name":"于淑珍","id_card_no":"150723193011271877"}</t>
         </is>
       </c>
     </row>
@@ -875,7 +875,7 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>{"user_name":"上秀华","id_card_no":"13072719901127695X"}</t>
+          <t>{"user_name":"蒯欣","id_card_no":"654021196912283589"}</t>
         </is>
       </c>
     </row>
@@ -927,7 +927,7 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>{"user_name":"穆利","id_card_no":"341524194207085757"}</t>
+          <t>{"user_name":"茅丹","id_card_no":"320623197902122300"}</t>
         </is>
       </c>
     </row>

--- a/tests/data/output/一级测试用例-10001_result.xlsx
+++ b/tests/data/output/一级测试用例-10001_result.xlsx
@@ -477,7 +477,7 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>{"user_name":"巫帆","id_card_no":"231224194506264673"}</t>
+          <t>{"user_name":"谯伟","id_card_no":"141026193612091994"}</t>
         </is>
       </c>
     </row>
@@ -535,7 +535,7 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>{"user_name":"裴兵","id_card_no":"140429199603155762"}</t>
+          <t>{"user_name":"荣凯","id_card_no":"370214194810070491"}</t>
         </is>
       </c>
     </row>
@@ -593,7 +593,7 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>{"user_name":"李鑫","id_card_no":"140723194602220134"}</t>
+          <t>{"user_name":"车淑华","id_card_no":"440823194705111586"}</t>
         </is>
       </c>
     </row>
@@ -651,7 +651,7 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>{"user_name":"梅刚","id_card_no":"659001195902087829"}</t>
+          <t>{"user_name":"姬桂香","id_card_no":"522635198105285042"}</t>
         </is>
       </c>
     </row>
@@ -707,7 +707,7 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>{"user_name":"养旭","id_card_no":"371501198501103089"}</t>
+          <t>{"user_name":"经霞","id_card_no":"150521196107039298"}</t>
         </is>
       </c>
     </row>
@@ -763,7 +763,7 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>{"user_name":"窦静","id_card_no":"130721193601178326"}</t>
+          <t>{"user_name":"孔玲","id_card_no":"450301195404026127"}</t>
         </is>
       </c>
     </row>
@@ -819,7 +819,7 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>{"user_name":"于淑珍","id_card_no":"150723193011271877"}</t>
+          <t>{"user_name":"柳华","id_card_no":"150000197907254610"}</t>
         </is>
       </c>
     </row>
@@ -875,7 +875,7 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>{"user_name":"蒯欣","id_card_no":"654021196912283589"}</t>
+          <t>{"user_name":"西梅","id_card_no":"210211196208094736"}</t>
         </is>
       </c>
     </row>
@@ -927,7 +927,7 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>{"user_name":"茅丹","id_card_no":"320623197902122300"}</t>
+          <t>{"user_name":"漆凤英","id_card_no":"370982197811114917"}</t>
         </is>
       </c>
     </row>
